--- a/Experiment1/phy1071/data.xlsx
+++ b/Experiment1/phy1071/data.xlsx
@@ -1,23 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE434B6-E269-4F42-9C22-9BE515C2E41D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643C2077-5EB6-43C6-B34D-B5346417CE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="4395" windowWidth="19845" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -153,74 +166,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>66 15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>246 7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>186 16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>55 59</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>235 55</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>175 58</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>355 52</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    2、角度中的度（°）和分（‘）请以 空格 隔开（注意不是小数点）。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>180 20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>120 24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>300 19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>72 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>252 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>191 58</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 56</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>47 15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -241,14 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>95 9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>275 4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>270 53</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -415,6 +356,54 @@
   <si>
     <t>291 26</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>260 57</t>
+  </si>
+  <si>
+    <t>80 59</t>
+  </si>
+  <si>
+    <t>140 31</t>
+  </si>
+  <si>
+    <t>320 45</t>
+  </si>
+  <si>
+    <t>207 46</t>
+  </si>
+  <si>
+    <t>27 48</t>
+  </si>
+  <si>
+    <t>87 48</t>
+  </si>
+  <si>
+    <t>267 52</t>
+  </si>
+  <si>
+    <t>52 30</t>
+  </si>
+  <si>
+    <t>232 35</t>
+  </si>
+  <si>
+    <t>292 30</t>
+  </si>
+  <si>
+    <t>112 28</t>
+  </si>
+  <si>
+    <t>6 37</t>
+  </si>
+  <si>
+    <t>186 39</t>
+  </si>
+  <si>
+    <t>246 42</t>
+  </si>
+  <si>
+    <t>66 45</t>
   </si>
 </sst>
 </file>
@@ -517,22 +506,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -871,616 +857,526 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScale="266" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="12" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="12" t="s">
+      <c r="E2" s="8"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="8"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12" t="s">
+      <c r="O2" s="8"/>
+      <c r="P2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="12"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="M10" s="1">
+        <v>7</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="M11" s="1">
+        <v>8</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="M12" s="1">
+        <v>9</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="M13" s="6">
+        <v>10</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="2">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" s="2">
-        <v>3</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="2">
-        <v>4</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="2">
-        <v>4</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="2">
-        <v>5</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="2">
-        <v>6</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="M9" s="2">
-        <v>6</v>
-      </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="G10" s="6">
-        <v>7</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="M10" s="6">
-        <v>7</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="G11" s="6">
-        <v>8</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="M11" s="6">
-        <v>8</v>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="G12" s="6">
-        <v>9</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="M12" s="6">
-        <v>9</v>
-      </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="G13" s="9">
-        <v>10</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="M13" s="9">
-        <v>10</v>
-      </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A23:G23"/>
     <mergeCell ref="A1:E1"/>
@@ -1492,6 +1388,11 @@
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A26:G26"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1501,12 +1402,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1">
+        <f>SUBSTITUTE(A1," ", "")-SUBSTITUTE(B1," ", "")</f>
+        <v>17998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C10" si="0">SUBSTITUTE(A2," ", "")-SUBSTITUTE(B2," ", "")</f>
+        <v>17998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>-18005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>-18002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-1797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-18014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-18004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>18002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>17997</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1518,7 +1545,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
